--- a/files/teaching-resources/monmouthcollege-busi-201/BUSI201-LEC02-Workbook.xlsx
+++ b/files/teaching-resources/monmouthcollege-busi-201/BUSI201-LEC02-Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Dropbox\Teaching\Monmouth College\[BUSI 201] Business Data Analysis\BUSI201-Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2EF386-F1A9-4CD7-8A23-986DB549FB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8E3405-6C23-4966-A087-225456D210D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{BF17DDDA-E86E-4F22-B5A6-A404B5E9B8D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF17DDDA-E86E-4F22-B5A6-A404B5E9B8D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2022Q3Stock" sheetId="10" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="2023Q1Stock" sheetId="8" r:id="rId3"/>
     <sheet name="2023Q2Stock" sheetId="7" r:id="rId4"/>
     <sheet name="2023Q3Stock" sheetId="6" r:id="rId5"/>
+    <sheet name="Autofill" sheetId="11" r:id="rId6"/>
+    <sheet name="Flash Fill" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="108">
   <si>
     <t>-</t>
   </si>
@@ -178,6 +180,192 @@
   </si>
   <si>
     <t>Items in Storage: 2023Q1</t>
+  </si>
+  <si>
+    <t>BUSI201-Lecture02</t>
+  </si>
+  <si>
+    <t>Item 2</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>BUSI201-Lecture01</t>
+  </si>
+  <si>
+    <t>Item 1</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Even More</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Words</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>"Day"</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Numbers</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Autofill Exersize</t>
+  </si>
+  <si>
+    <t>heschmidt@monmouthcollege.edu</t>
+  </si>
+  <si>
+    <t>Rm 251 CSB</t>
+  </si>
+  <si>
+    <t>Herb Schmidt</t>
+  </si>
+  <si>
+    <t>(309) 457-2449</t>
+  </si>
+  <si>
+    <t>bpark@monmouthcollege.edu</t>
+  </si>
+  <si>
+    <t>Rm 248 CSB</t>
+  </si>
+  <si>
+    <t>Brian Park</t>
+  </si>
+  <si>
+    <t>309-457-2234</t>
+  </si>
+  <si>
+    <t>tprince@monmouthcollege.edu</t>
+  </si>
+  <si>
+    <t>Rm 259 Center for Science &amp; Business</t>
+  </si>
+  <si>
+    <t>Tom Prince</t>
+  </si>
+  <si>
+    <t>309-457-2182</t>
+  </si>
+  <si>
+    <t>richardj@monmouthcollege.edu</t>
+  </si>
+  <si>
+    <t>Rm 247 Center for Science &amp; Business</t>
+  </si>
+  <si>
+    <t>Richard Johnston</t>
+  </si>
+  <si>
+    <t>309-457-2156</t>
+  </si>
+  <si>
+    <t>michaelc@monmouthcollege.edu</t>
+  </si>
+  <si>
+    <t>Rm 258 Center for Science &amp; Business</t>
+  </si>
+  <si>
+    <t>Michael Connell</t>
+  </si>
+  <si>
+    <t>(309) 457-2365</t>
+  </si>
+  <si>
+    <t>acleland@monmouthcollege.edu</t>
+  </si>
+  <si>
+    <t>Rm 257, CSB</t>
+  </si>
+  <si>
+    <t>Amanda Cleland</t>
+  </si>
+  <si>
+    <t>(309) 457-2184</t>
+  </si>
+  <si>
+    <t>sbashir@monmouthcollege.edu</t>
+  </si>
+  <si>
+    <t>Rm 348 CSB</t>
+  </si>
+  <si>
+    <t>Saadullah Bashir</t>
+  </si>
+  <si>
+    <t>Using Functions…</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>Office Number</t>
+  </si>
+  <si>
+    <t>Login ID</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Flash Fill Exersize: MC Business &amp; Economics Faculty List</t>
+  </si>
+  <si>
+    <t>Text and Numbers</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Minute</t>
+  </si>
+  <si>
+    <t>Second</t>
   </si>
 </sst>
 </file>
@@ -187,7 +375,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +406,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,8 +462,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -267,11 +497,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -291,6 +541,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,9 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E75C71F-BC26-4AF9-A521-87E0310CFD8E}">
   <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2037,7 +2316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062974A6-EF7F-4252-9DAC-FC5F039505D4}">
   <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -2388,4 +2667,804 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EB207B-FE69-4F52-B76B-85B99DCF5783}">
+  <dimension ref="B2:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="5" width="10.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" style="1" customWidth="1"/>
+    <col min="11" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.77734375" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.77734375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.77734375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="4" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="G4" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="K4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="O4" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>44927</v>
+      </c>
+      <c r="C6" s="15">
+        <v>44927</v>
+      </c>
+      <c r="D6" s="15">
+        <v>44927</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14">
+        <v>1</v>
+      </c>
+      <c r="L6" s="14">
+        <v>1</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="15">
+        <v>45292</v>
+      </c>
+      <c r="C7" s="15">
+        <v>44958</v>
+      </c>
+      <c r="D7" s="15">
+        <v>44928</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="22">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0.50011574074074072</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14">
+        <v>2</v>
+      </c>
+      <c r="L7" s="14">
+        <v>3</v>
+      </c>
+      <c r="M7" s="14">
+        <v>1</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>45658</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14">
+        <v>1</v>
+      </c>
+      <c r="N8" s="14"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
+        <v>46023</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14">
+        <v>2</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>46388</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14">
+        <v>3</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
+        <v>46753</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14">
+        <v>5</v>
+      </c>
+      <c r="N11" s="14"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
+        <v>47119</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <v>47484</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="15">
+        <v>47849</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="15">
+        <v>48214</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="15">
+        <v>48580</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="15">
+        <v>48945</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="15">
+        <v>49310</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="15">
+        <v>49675</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="15">
+        <v>50041</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="G4:I4"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5151529A-623A-4E43-B113-D721849CCFFF}">
+  <dimension ref="B2:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="20.77734375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="4" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="L5" s="18" t="str">
+        <f>LEFT(B5,FIND(" ",B5)-1)</f>
+        <v>Saadullah</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f>MID(B5,FIND(" ",B5)+1,LEN(B5)-FIND(" ",B5))</f>
+        <v>Bashir</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f>LEFT(D5,FIND("@",D5)-1)</f>
+        <v>sbashir</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f>MID(C5,4,3)</f>
+        <v>348</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f>RIGHT(E5,4)</f>
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="L6" s="18" t="str">
+        <f>LEFT(B6,FIND(" ",B6)-1)</f>
+        <v>Amanda</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f>MID(B6,FIND(" ",B6)+1,LEN(B6)-FIND(" ",B6))</f>
+        <v>Cleland</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f>LEFT(D6,FIND("@",D6)-1)</f>
+        <v>acleland</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f>MID(C6,4,3)</f>
+        <v>257</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f>RIGHT(E6,4)</f>
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="L7" s="18" t="str">
+        <f>LEFT(B7,FIND(" ",B7)-1)</f>
+        <v>Michael</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f>MID(B7,FIND(" ",B7)+1,LEN(B7)-FIND(" ",B7))</f>
+        <v>Connell</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f>LEFT(D7,FIND("@",D7)-1)</f>
+        <v>michaelc</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f>MID(C7,4,3)</f>
+        <v>258</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f>RIGHT(E7,4)</f>
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="L8" s="18" t="str">
+        <f>LEFT(B8,FIND(" ",B8)-1)</f>
+        <v>Richard</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f>MID(B8,FIND(" ",B8)+1,LEN(B8)-FIND(" ",B8))</f>
+        <v>Johnston</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f>LEFT(D8,FIND("@",D8)-1)</f>
+        <v>richardj</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f>MID(C8,4,3)</f>
+        <v>247</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f>RIGHT(E8,4)</f>
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="L9" s="18" t="str">
+        <f>LEFT(B9,FIND(" ",B9)-1)</f>
+        <v>Tom</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f>MID(B9,FIND(" ",B9)+1,LEN(B9)-FIND(" ",B9))</f>
+        <v>Prince</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f>LEFT(D9,FIND("@",D9)-1)</f>
+        <v>tprince</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f>MID(C9,4,3)</f>
+        <v>259</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f>RIGHT(E9,4)</f>
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="L10" s="18" t="str">
+        <f>LEFT(B10,FIND(" ",B10)-1)</f>
+        <v>Brian</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f>MID(B10,FIND(" ",B10)+1,LEN(B10)-FIND(" ",B10))</f>
+        <v>Park</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f>LEFT(D10,FIND("@",D10)-1)</f>
+        <v>bpark</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <f>MID(C10,4,3)</f>
+        <v>248</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f>RIGHT(E10,4)</f>
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="L11" s="18" t="str">
+        <f>LEFT(B11,FIND(" ",B11)-1)</f>
+        <v>Herb</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f>MID(B11,FIND(" ",B11)+1,LEN(B11)-FIND(" ",B11))</f>
+        <v>Schmidt</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f>LEFT(D11,FIND("@",D11)-1)</f>
+        <v>heschmidt</v>
+      </c>
+      <c r="O11" s="1" t="str">
+        <f>MID(C11,4,3)</f>
+        <v>251</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f>RIGHT(E11,4)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="L4:P4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>